--- a/sheet/daily attendance.xlsx
+++ b/sheet/daily attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atosh\OneDrive\Desktop\Sanatoni-Sahityo-Samaj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atosh\OneDrive\Desktop\Sanatoni-Sahityo-Samaj\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECCAF3E-C11C-419D-AA14-1BFD97531A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3001E-6190-4D83-AABD-46BEF9C68B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Month:</t>
   </si>
@@ -53,9 +53,6 @@
     <t>November</t>
   </si>
   <si>
-    <t>Student Name</t>
-  </si>
-  <si>
     <t>In Time</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>Anamika</t>
+  </si>
+  <si>
+    <t>Manik</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -600,8 +603,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -612,10 +615,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -629,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -643,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -653,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -663,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -673,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -683,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -693,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -703,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -713,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -723,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -733,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -743,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -753,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -763,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -773,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -783,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -793,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -803,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -813,7 +816,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -823,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -833,7 +836,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -843,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -853,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -863,7 +866,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -873,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -883,7 +886,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -893,7 +896,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -903,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -913,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -923,7 +926,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -933,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -942,7 +945,9 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>

--- a/sheet/daily attendance.xlsx
+++ b/sheet/daily attendance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atosh\OneDrive\Desktop\Sanatoni-Sahityo-Samaj\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3001E-6190-4D83-AABD-46BEF9C68B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E83EF-0B04-4FAB-8F1E-EDDBD76EB1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Month:</t>
   </si>
@@ -152,7 +153,10 @@
     <t>Manik</t>
   </si>
   <si>
-    <t>b</t>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Siyam 2</t>
   </si>
 </sst>
 </file>
@@ -311,7 +315,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -597,14 +611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44D90A-6001-4E3B-AAE6-ABE20625A05B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,7 +632,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1">
-        <v>45973</v>
+        <v>45975</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -645,9 +659,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
@@ -655,9 +667,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
@@ -665,9 +675,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
@@ -675,9 +683,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
@@ -685,9 +691,7 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
@@ -695,9 +699,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
@@ -705,9 +707,7 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
@@ -715,9 +715,7 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
@@ -725,9 +723,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
@@ -735,9 +731,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
@@ -745,9 +739,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
@@ -755,9 +747,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
@@ -765,9 +755,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
@@ -775,9 +763,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
@@ -785,9 +771,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
@@ -795,9 +779,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
@@ -805,9 +787,7 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
@@ -815,9 +795,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
@@ -825,9 +803,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
@@ -835,9 +811,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
@@ -845,9 +819,7 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
@@ -855,9 +827,7 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
@@ -865,9 +835,7 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
@@ -875,9 +843,7 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
@@ -885,9 +851,7 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
@@ -895,9 +859,7 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
@@ -905,9 +867,7 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
@@ -915,9 +875,7 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
@@ -925,9 +883,7 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
@@ -935,9 +891,7 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
@@ -945,9 +899,7 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
@@ -1038,4 +990,450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B40:B41">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>